--- a/Exercise Tracker.xlsx
+++ b/Exercise Tracker.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e463fbe551448119/Documents/study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{D6C0DD27-4223-459A-BC92-48F1D4CA5E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="341" documentId="14_{D6C0DD27-4223-459A-BC92-48F1D4CA5E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CE3F0B3-92F7-4E1E-BEBF-69EE09CCEA6E}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2115" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-28920" yWindow="-1575" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tracker" sheetId="1" r:id="rId1"/>
+    <sheet name="Demo" sheetId="1" r:id="rId1"/>
     <sheet name="Key data" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Demo!$M$4:$P$4</definedName>
+    <definedName name="startdate">'Key data'!$I$2</definedName>
+    <definedName name="Weekday">'Key data'!$J$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +42,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -59,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -163,16 +168,25 @@
     <t>HITT</t>
   </si>
   <si>
-    <t>Swimming</t>
+    <t>Rest</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Target - sessions</t>
+  </si>
+  <si>
+    <t>No of sessions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="d"/>
-    <numFmt numFmtId="168" formatCode="dd/mmm/yyyy"/>
+    <numFmt numFmtId="164" formatCode="d"/>
+    <numFmt numFmtId="165" formatCode="dd"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -212,7 +226,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -243,8 +257,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC1A691"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -308,24 +328,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -431,113 +433,76 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
         <color theme="0"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
         <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0"/>
+        <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="thick">
         <color theme="0"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="thick">
         <color theme="0"/>
       </left>
-      <right style="thin">
+      <right style="thick">
         <color theme="0"/>
       </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="thick">
         <color theme="0"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -545,16 +510,76 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -567,200 +592,38 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="4">
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color auto="1"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF6C584C"/>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF0EAD2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF0EAD2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF0EAD2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF0EAD2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF0EAD2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -799,50 +662,16 @@
         <horizontal/>
       </border>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkGray">
-          <fgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="mediumGray">
-          <fgColor rgb="FFA98467"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFADC178"/>
+      <color rgb="FFDDE5B6"/>
+      <color rgb="FFA98467"/>
+      <color rgb="FFC1A691"/>
       <color rgb="FFF0EAD2"/>
       <color rgb="FF6C584C"/>
-      <color rgb="FFA98467"/>
-      <color rgb="FFC1A691"/>
-      <color rgb="FFDDE5B6"/>
     </mruColors>
   </colors>
   <extLst>
@@ -877,11 +706,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -891,8 +720,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Activity Type</a:t>
+              <a:t>No</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> of Sessions </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -909,11 +743,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -928,339 +762,96 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:doughnutChart>
-        <c:varyColors val="1"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:pattFill prst="ltUpDiag">
-                <a:fgClr>
-                  <a:schemeClr val="accent2"/>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="20000"/>
-                    <a:lumOff val="80000"/>
-                  </a:schemeClr>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst>
-                <a:innerShdw blurRad="114300">
-                  <a:schemeClr val="accent2"/>
-                </a:innerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:pattFill prst="ltUpDiag">
-                <a:fgClr>
-                  <a:schemeClr val="accent4"/>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="20000"/>
-                    <a:lumOff val="80000"/>
-                  </a:schemeClr>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst>
-                <a:innerShdw blurRad="114300">
-                  <a:schemeClr val="accent4"/>
-                </a:innerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:pattFill prst="ltUpDiag">
-                <a:fgClr>
-                  <a:schemeClr val="accent6"/>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="20000"/>
-                    <a:lumOff val="80000"/>
-                  </a:schemeClr>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst>
-                <a:innerShdw blurRad="114300">
-                  <a:schemeClr val="accent6"/>
-                </a:innerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:pattFill prst="ltUpDiag">
-                <a:fgClr>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                    <a:lumMod val="20000"/>
-                    <a:lumOff val="80000"/>
-                  </a:schemeClr>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst>
-                <a:innerShdw blurRad="114300">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:innerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:pattFill prst="ltUpDiag">
-                <a:fgClr>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                    <a:lumMod val="20000"/>
-                    <a:lumOff val="80000"/>
-                  </a:schemeClr>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst>
-                <a:innerShdw blurRad="114300">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:innerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:pattFill prst="ltUpDiag">
-                <a:fgClr>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="60000"/>
-                    <a:lumMod val="20000"/>
-                    <a:lumOff val="80000"/>
-                  </a:schemeClr>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst>
-                <a:innerShdw blurRad="114300">
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:innerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:pattFill prst="ltUpDiag">
-                <a:fgClr>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                    <a:lumMod val="20000"/>
-                    <a:lumOff val="80000"/>
-                  </a:schemeClr>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst>
-                <a:innerShdw blurRad="114300">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:innerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
+          <c:tx>
+            <c:strRef>
+              <c:f>Demo!$N$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No of sessions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ADC178"/>
+            </a:solidFill>
+            <a:ln>
               <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tracker!$M$5:$M$11</c:f>
+              <c:f>Demo!$M$5:$M$11</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Yoga</c:v>
+                  <c:v>Boxing</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Cardio</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>HITT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rest</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Weight Training</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>Yoga</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Zumba</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Boxing</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>HITT</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Swimming</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tracker!$N$5:$N$11</c:f>
+              <c:f>Demo!$N$5:$N$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-69BF-4A7B-BAFC-BBE51D1CF9F3}"/>
+              <c16:uniqueId val="{00000000-8394-4E05-894A-E4953A2357CD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1269,13 +860,228 @@
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
+          <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:firstSliceAng val="0"/>
-        <c:holeSize val="50"/>
-      </c:doughnutChart>
+        <c:gapWidth val="219"/>
+        <c:axId val="139320703"/>
+        <c:axId val="2139112943"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Demo!$P$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Target - sessions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="DDE5B6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Demo!$M$5:$M$11</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Boxing</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cardio</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HITT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rest</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Weight Training</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Yoga</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Zumba</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Demo!$P$5:$P$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8394-4E05-894A-E4953A2357CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="139320703"/>
+        <c:axId val="2139112943"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="139320703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2139112943"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2139112943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="139320703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1285,7 +1091,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1359,10 +1165,365 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Demo!$O$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Minutes spent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ADC178"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Demo!$M$5:$M$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Demo!$M$5:$M$7,Demo!$M$9:$M$11)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Boxing</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cardio</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HITT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Weight Training</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Yoga</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Zumba</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Demo!$O$5:$O$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Demo!$O$5:$O$7,Demo!$O$9:$O$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EAC1-4B23-AC68-DBC710A23BD1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="128063887"/>
+        <c:axId val="133683407"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="128063887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="133683407"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="133683407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="128063887"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -1397,7 +1558,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="252">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1408,7 +1569,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -1421,11 +1582,11 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1438,7 +1599,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1454,7 +1615,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -1498,80 +1659,32 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltUpDiag">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-      <a:effectLst>
-        <a:innerShdw blurRad="114300">
-          <a:schemeClr val="phClr"/>
-        </a:innerShdw>
-      </a:effectLst>
-    </cs:spPr>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltUpDiag">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-      <a:effectLst>
-        <a:innerShdw blurRad="114300">
-          <a:schemeClr val="phClr"/>
-        </a:innerShdw>
-      </a:effectLst>
-    </cs:spPr>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
@@ -1583,34 +1696,33 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1632,13 +1744,15 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1653,15 +1767,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1672,10 +1786,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -1691,14 +1805,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1710,24 +1824,31 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -1736,16 +1857,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1754,10 +1876,29 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -1767,24 +1908,6 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:leaderLine>
   <cs:legend>
     <cs:lnRef idx="0"/>
@@ -1803,7 +1926,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -1811,7 +1934,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1831,10 +1954,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -1851,11 +1974,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1864,13 +1987,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1900,8 +2024,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1924,8 +2048,519 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1935,22 +2570,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA354CBB-E5B7-FFA9-DFC9-AA7D52463EA2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18B43B16-0BF2-5954-89C7-16406AFAFE77}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1968,20 +2603,47 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFA4D16B-22CF-CECC-D346-56403DFC21A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Workout" displayName="Workout" ref="L13:O43" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="L13:O43"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="Date" dataDxfId="5"/>
-    <tableColumn id="2" name="Activity" dataDxfId="4"/>
-    <tableColumn id="3" name="Minutes spent" dataDxfId="3"/>
-    <tableColumn id="4" name="Description" dataDxfId="2"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2280,579 +2942,966 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:R43"/>
+  <dimension ref="A1:R49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="8.7265625" customWidth="1"/>
-    <col min="3" max="3" width="2.1796875" customWidth="1"/>
+    <col min="2" max="2" width="7.1796875" customWidth="1"/>
+    <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="5" width="7.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="5.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.1796875" customWidth="1"/>
-    <col min="12" max="12" width="11.6328125" customWidth="1"/>
-    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7265625" customWidth="1"/>
-    <col min="15" max="15" width="34.81640625" customWidth="1"/>
-    <col min="16" max="16" width="3.36328125" customWidth="1"/>
+    <col min="12" max="12" width="4.08984375" customWidth="1"/>
+    <col min="13" max="13" width="12.7265625" customWidth="1"/>
+    <col min="14" max="14" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24" customWidth="1"/>
+    <col min="16" max="16" width="16.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
     </row>
     <row r="2" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="D4" s="7">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+    </row>
+    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D4" s="29">
         <v>2023</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9" t="s">
+      <c r="E4" s="30"/>
+      <c r="F4" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="10"/>
-      <c r="M4" s="35" t="s">
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="32"/>
+      <c r="M4" s="18" t="s">
         <v>26</v>
       </c>
       <c r="N4" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="35" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="D5" s="3" t="s">
+      <c r="P4" s="35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D5" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="N5" s="14">
-        <f>SUMIF(Workout[Activity],M5,Workout[Minutes spent])</f>
+      <c r="M5" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="19">
+        <f>COUNTIF(N$14:N$45,M5)</f>
+        <v>1</v>
+      </c>
+      <c r="O5" s="19">
+        <f ca="1">SUMIF(N$14:N$46,M5,P$14:P$45)</f>
         <v>50</v>
+      </c>
+      <c r="P5" s="19">
+        <v>1</v>
       </c>
       <c r="R5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D6" s="16" cm="1">
-        <f t="array" ref="D6:J11">_xlfn.SEQUENCE(6,7,'Key data'!I2-'Key data'!J2+1)</f>
+    <row r="6" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D6" s="7" cm="1">
+        <f t="array" ref="D6:J11">_xlfn.SEQUENCE(6,7,[0]!startdate-[0]!Weekday+1)</f>
         <v>45166</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="8">
         <v>45167</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="8">
         <v>45168</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="8">
         <v>45169</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="8">
         <v>45170</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="8">
         <v>45171</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="9">
         <v>45172</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="14">
-        <f>SUMIF(Workout[Activity],M6,Workout[Minutes spent])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D7" s="19">
+      <c r="N6" s="19">
+        <f>COUNTIF(N$14:N$45,M6)</f>
+        <v>6</v>
+      </c>
+      <c r="O6" s="19">
+        <f ca="1">SUMIF(N$14:N$46,M6,P$14:P$45)</f>
+        <v>225</v>
+      </c>
+      <c r="P6" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D7" s="10">
         <v>45173</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="11">
         <v>45174</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="11">
         <v>45175</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="11">
         <v>45176</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="11">
         <v>45177</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="11">
         <v>45178</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="12">
         <v>45179</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" s="19">
+        <f>COUNTIF(N$14:N$45,M7)</f>
+        <v>5</v>
+      </c>
+      <c r="O7" s="19">
+        <f ca="1">SUMIF(N$14:N$46,M7,P$14:P$45)</f>
+        <v>175</v>
+      </c>
+      <c r="P7" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D8" s="10">
+        <v>45180</v>
+      </c>
+      <c r="E8" s="11">
+        <v>45181</v>
+      </c>
+      <c r="F8" s="11">
+        <v>45182</v>
+      </c>
+      <c r="G8" s="11">
+        <v>45183</v>
+      </c>
+      <c r="H8" s="11">
+        <v>45184</v>
+      </c>
+      <c r="I8" s="11">
+        <v>45185</v>
+      </c>
+      <c r="J8" s="12">
+        <v>45186</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" s="19">
+        <f>COUNTIF(N$14:N$45,M8)</f>
+        <v>5</v>
+      </c>
+      <c r="O8" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D9" s="10">
+        <v>45187</v>
+      </c>
+      <c r="E9" s="11">
+        <v>45188</v>
+      </c>
+      <c r="F9" s="11">
+        <v>45189</v>
+      </c>
+      <c r="G9" s="11">
+        <v>45190</v>
+      </c>
+      <c r="H9" s="11">
+        <v>45191</v>
+      </c>
+      <c r="I9" s="11">
+        <v>45192</v>
+      </c>
+      <c r="J9" s="12">
+        <v>45193</v>
+      </c>
+      <c r="M9" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="N7" s="14">
-        <f>SUMIF(Workout[Activity],M7,Workout[Minutes spent])</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D8" s="19">
+      <c r="N9" s="19">
+        <f>COUNTIF(N$14:N$45,M9)</f>
+        <v>6</v>
+      </c>
+      <c r="O9" s="19">
+        <f ca="1">SUMIF(N$14:N$46,M9,P$14:P$45)</f>
+        <v>350</v>
+      </c>
+      <c r="P9" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D10" s="10">
+        <v>45194</v>
+      </c>
+      <c r="E10" s="11">
+        <v>45195</v>
+      </c>
+      <c r="F10" s="11">
+        <v>45196</v>
+      </c>
+      <c r="G10" s="11">
+        <v>45197</v>
+      </c>
+      <c r="H10" s="11">
+        <v>45198</v>
+      </c>
+      <c r="I10" s="11">
+        <v>45199</v>
+      </c>
+      <c r="J10" s="12">
+        <v>45200</v>
+      </c>
+      <c r="M10" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" s="19">
+        <f>COUNTIF(N$14:N$45,M10)</f>
+        <v>6</v>
+      </c>
+      <c r="O10" s="19">
+        <f ca="1">SUMIF(N$14:N$46,M10,P$14:P$45)</f>
+        <v>300</v>
+      </c>
+      <c r="P10" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D11" s="13">
+        <v>45201</v>
+      </c>
+      <c r="E11" s="14">
+        <v>45202</v>
+      </c>
+      <c r="F11" s="14">
+        <v>45203</v>
+      </c>
+      <c r="G11" s="14">
+        <v>45204</v>
+      </c>
+      <c r="H11" s="14">
+        <v>45205</v>
+      </c>
+      <c r="I11" s="14">
+        <v>45206</v>
+      </c>
+      <c r="J11" s="15">
+        <v>45207</v>
+      </c>
+      <c r="M11" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="19">
+        <f>COUNTIF(N$14:N$45,M11)</f>
+        <v>1</v>
+      </c>
+      <c r="O11" s="19">
+        <f ca="1">SUMIF(N$14:N$46,M11,P$14:P$45)</f>
+        <v>50</v>
+      </c>
+      <c r="P11" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:18" ht="31" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="L13" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="28"/>
+      <c r="N13" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="O13" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="P13" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="L14" s="24" cm="1">
+        <f t="array" ref="L14:L43">_xlfn.SEQUENCE(EOMONTH('Key data'!I$2,0)-'Key data'!I$2+1,,'Key data'!I2,1)</f>
+        <v>45170</v>
+      </c>
+      <c r="M14" s="25" t="str">
+        <f>IF(ISBLANK(L14),"",TEXT(WEEKDAY(L14,2),"ddd"))</f>
+        <v>Thu</v>
+      </c>
+      <c r="N14" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="O14" s="22"/>
+      <c r="P14" s="19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="L15" s="24">
+        <v>45171</v>
+      </c>
+      <c r="M15" s="25" t="str">
+        <f t="shared" ref="M15:M45" si="0">IF(ISBLANK(L15),"",TEXT(WEEKDAY(L15,2),"ddd"))</f>
+        <v>Fri</v>
+      </c>
+      <c r="N15" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="O15" s="22"/>
+      <c r="P15" s="19"/>
+    </row>
+    <row r="16" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="L16" s="24">
+        <v>45172</v>
+      </c>
+      <c r="M16" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>Sat</v>
+      </c>
+      <c r="N16" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="O16" s="22"/>
+      <c r="P16" s="19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="4:16" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="L17" s="24">
+        <v>45173</v>
+      </c>
+      <c r="M17" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="O17" s="22"/>
+      <c r="P17" s="19">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="4:16" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L18" s="24">
+        <v>45174</v>
+      </c>
+      <c r="M18" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>Mon</v>
+      </c>
+      <c r="N18" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="O18" s="22"/>
+      <c r="P18" s="19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="4:16" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L19" s="24">
+        <v>45175</v>
+      </c>
+      <c r="M19" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>Tue</v>
+      </c>
+      <c r="N19" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="O19" s="22"/>
+      <c r="P19" s="19">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="4:16" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L20" s="24">
+        <v>45176</v>
+      </c>
+      <c r="M20" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>Wed</v>
+      </c>
+      <c r="N20" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="O20" s="22"/>
+      <c r="P20" s="19"/>
+    </row>
+    <row r="21" spans="4:16" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L21" s="24">
+        <v>45177</v>
+      </c>
+      <c r="M21" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>Thu</v>
+      </c>
+      <c r="N21" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="O21" s="22"/>
+      <c r="P21" s="19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="4:16" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L22" s="24">
+        <v>45178</v>
+      </c>
+      <c r="M22" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>Fri</v>
+      </c>
+      <c r="N22" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="O22" s="22"/>
+      <c r="P22" s="19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="4:16" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L23" s="24">
+        <v>45179</v>
+      </c>
+      <c r="M23" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>Sat</v>
+      </c>
+      <c r="N23" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="O23" s="22"/>
+      <c r="P23" s="19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="4:16" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L24" s="24">
         <v>45180</v>
       </c>
-      <c r="E8" s="20">
+      <c r="M24" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun</v>
+      </c>
+      <c r="N24" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="O24" s="22"/>
+      <c r="P24" s="19">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="4:16" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L25" s="24">
         <v>45181</v>
       </c>
-      <c r="F8" s="20">
+      <c r="M25" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>Mon</v>
+      </c>
+      <c r="N25" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="O25" s="22"/>
+      <c r="P25" s="19"/>
+    </row>
+    <row r="26" spans="4:16" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L26" s="24">
         <v>45182</v>
       </c>
-      <c r="G8" s="20">
+      <c r="M26" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>Tue</v>
+      </c>
+      <c r="N26" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="O26" s="22"/>
+      <c r="P26" s="19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="4:16" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L27" s="24">
         <v>45183</v>
       </c>
-      <c r="H8" s="20">
+      <c r="M27" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>Wed</v>
+      </c>
+      <c r="N27" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="O27" s="22"/>
+      <c r="P27" s="19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="4:16" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L28" s="24">
         <v>45184</v>
       </c>
-      <c r="I8" s="20">
+      <c r="M28" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>Thu</v>
+      </c>
+      <c r="N28" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="O28" s="22"/>
+      <c r="P28" s="19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="4:16" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L29" s="24">
         <v>45185</v>
       </c>
-      <c r="J8" s="21">
+      <c r="M29" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>Fri</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="O29" s="22"/>
+      <c r="P29" s="19">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="4:16" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L30" s="24">
         <v>45186</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="M30" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>Sat</v>
+      </c>
+      <c r="N30" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="O30" s="22"/>
+      <c r="P30" s="19"/>
+    </row>
+    <row r="31" spans="4:16" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L31" s="24">
+        <v>45187</v>
+      </c>
+      <c r="M31" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun</v>
+      </c>
+      <c r="N31" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="O31" s="22"/>
+      <c r="P31" s="19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="4:16" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L32" s="24">
+        <v>45188</v>
+      </c>
+      <c r="M32" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>Mon</v>
+      </c>
+      <c r="N32" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="O32" s="22"/>
+      <c r="P32" s="19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="12:16" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L33" s="24">
+        <v>45189</v>
+      </c>
+      <c r="M33" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>Tue</v>
+      </c>
+      <c r="N33" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="O33" s="22"/>
+      <c r="P33" s="19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="12:16" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L34" s="24">
+        <v>45190</v>
+      </c>
+      <c r="M34" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>Wed</v>
+      </c>
+      <c r="N34" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="O34" s="22"/>
+      <c r="P34" s="19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="12:16" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L35" s="24">
+        <v>45191</v>
+      </c>
+      <c r="M35" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>Thu</v>
+      </c>
+      <c r="N35" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="O35" s="22"/>
+      <c r="P35" s="19"/>
+    </row>
+    <row r="36" spans="12:16" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L36" s="24">
+        <v>45192</v>
+      </c>
+      <c r="M36" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>Fri</v>
+      </c>
+      <c r="N36" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="O36" s="22"/>
+      <c r="P36" s="19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="12:16" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L37" s="24">
+        <v>45193</v>
+      </c>
+      <c r="M37" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>Sat</v>
+      </c>
+      <c r="N37" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="O37" s="22"/>
+      <c r="P37" s="19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="12:16" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L38" s="24">
+        <v>45194</v>
+      </c>
+      <c r="M38" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun</v>
+      </c>
+      <c r="N38" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="O38" s="22"/>
+      <c r="P38" s="19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="12:16" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L39" s="24">
+        <v>45195</v>
+      </c>
+      <c r="M39" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>Mon</v>
+      </c>
+      <c r="N39" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="O39" s="22"/>
+      <c r="P39" s="19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="12:16" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L40" s="24">
+        <v>45196</v>
+      </c>
+      <c r="M40" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>Tue</v>
+      </c>
+      <c r="N40" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="N8" s="14">
-        <f>SUMIF(Workout[Activity],M8,Workout[Minutes spent])</f>
+      <c r="O40" s="22"/>
+      <c r="P40" s="19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="12:16" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L41" s="24">
+        <v>45197</v>
+      </c>
+      <c r="M41" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>Wed</v>
+      </c>
+      <c r="N41" s="19" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D9" s="19">
-        <v>45187</v>
-      </c>
-      <c r="E9" s="20">
-        <v>45188</v>
-      </c>
-      <c r="F9" s="20">
-        <v>45189</v>
-      </c>
-      <c r="G9" s="20">
-        <v>45190</v>
-      </c>
-      <c r="H9" s="20">
-        <v>45191</v>
-      </c>
-      <c r="I9" s="20">
-        <v>45192</v>
-      </c>
-      <c r="J9" s="21">
-        <v>45193</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" s="14">
-        <f>SUMIF(Workout[Activity],M9,Workout[Minutes spent])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D10" s="19">
-        <v>45194</v>
-      </c>
-      <c r="E10" s="20">
-        <v>45195</v>
-      </c>
-      <c r="F10" s="20">
-        <v>45196</v>
-      </c>
-      <c r="G10" s="20">
-        <v>45197</v>
-      </c>
-      <c r="H10" s="20">
+      <c r="O41" s="22"/>
+      <c r="P41" s="19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="12:16" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L42" s="24">
         <v>45198</v>
       </c>
-      <c r="I10" s="20">
+      <c r="M42" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>Thu</v>
+      </c>
+      <c r="N42" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="O42" s="22"/>
+      <c r="P42" s="19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="12:16" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L43" s="24">
         <v>45199</v>
       </c>
-      <c r="J10" s="21">
-        <v>45200</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="N10" s="14">
-        <f>SUMIF(Workout[Activity],M10,Workout[Minutes spent])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="D11" s="22">
-        <v>45201</v>
-      </c>
-      <c r="E11" s="23">
-        <v>45202</v>
-      </c>
-      <c r="F11" s="23">
-        <v>45203</v>
-      </c>
-      <c r="G11" s="23">
-        <v>45204</v>
-      </c>
-      <c r="H11" s="23">
-        <v>45205</v>
-      </c>
-      <c r="I11" s="23">
-        <v>45206</v>
-      </c>
-      <c r="J11" s="24">
-        <v>45207</v>
-      </c>
-      <c r="M11" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="N11" s="14">
-        <f>SUMIF(Workout[Activity],M11,Workout[Minutes spent])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="L13" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="M13" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="N13" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="O13" s="34" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="L14" s="25">
-        <v>45173</v>
-      </c>
-      <c r="M14" s="26" t="s">
+      <c r="M43" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>Fri</v>
+      </c>
+      <c r="N43" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="N14" s="26">
+      <c r="O43" s="22"/>
+      <c r="P43" s="19">
         <v>50</v>
       </c>
-      <c r="O14" s="27"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="N15" s="29">
-        <v>10</v>
-      </c>
-      <c r="O15" s="30"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="N16" s="29">
-        <v>30</v>
-      </c>
-      <c r="O16" s="30"/>
-    </row>
-    <row r="17" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="30"/>
-    </row>
-    <row r="18" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="L18" s="28"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="30"/>
-    </row>
-    <row r="19" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="L19" s="28"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="30"/>
-    </row>
-    <row r="20" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="L20" s="28"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="30"/>
-    </row>
-    <row r="21" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="L21" s="28"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="30"/>
-    </row>
-    <row r="22" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="L22" s="28"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="30"/>
-    </row>
-    <row r="23" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="L23" s="28"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="30"/>
-    </row>
-    <row r="24" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="L24" s="28"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="30"/>
-    </row>
-    <row r="25" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="L25" s="28"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="30"/>
-    </row>
-    <row r="26" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="L26" s="28"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="30"/>
-    </row>
-    <row r="27" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="L27" s="28"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="30"/>
-    </row>
-    <row r="28" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="L28" s="28"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="30"/>
-    </row>
-    <row r="29" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="L29" s="28"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="30"/>
-    </row>
-    <row r="30" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="L30" s="28"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="30"/>
-    </row>
-    <row r="31" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="L31" s="28"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="30"/>
-    </row>
-    <row r="32" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="L32" s="28"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="30"/>
-    </row>
-    <row r="33" spans="12:15" x14ac:dyDescent="0.35">
-      <c r="L33" s="28"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="30"/>
-    </row>
-    <row r="34" spans="12:15" x14ac:dyDescent="0.35">
-      <c r="L34" s="28"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="30"/>
-    </row>
-    <row r="35" spans="12:15" x14ac:dyDescent="0.35">
-      <c r="L35" s="28"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="30"/>
-    </row>
-    <row r="36" spans="12:15" x14ac:dyDescent="0.35">
-      <c r="L36" s="28"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="30"/>
-    </row>
-    <row r="37" spans="12:15" x14ac:dyDescent="0.35">
-      <c r="L37" s="28"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="30"/>
-    </row>
-    <row r="38" spans="12:15" x14ac:dyDescent="0.35">
-      <c r="L38" s="28"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="30"/>
-    </row>
-    <row r="39" spans="12:15" x14ac:dyDescent="0.35">
-      <c r="L39" s="28"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="30"/>
-    </row>
-    <row r="40" spans="12:15" x14ac:dyDescent="0.35">
-      <c r="L40" s="28"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="30"/>
-    </row>
-    <row r="41" spans="12:15" x14ac:dyDescent="0.35">
-      <c r="L41" s="28"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="30"/>
-    </row>
-    <row r="42" spans="12:15" x14ac:dyDescent="0.35">
-      <c r="L42" s="28"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="30"/>
-    </row>
-    <row r="43" spans="12:15" x14ac:dyDescent="0.35">
-      <c r="L43" s="31"/>
-      <c r="M43" s="32"/>
-      <c r="N43" s="32"/>
-      <c r="O43" s="33"/>
+    </row>
+    <row r="44" spans="12:16" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L44" s="24"/>
+      <c r="M44" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N44" s="19"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="19"/>
+    </row>
+    <row r="45" spans="12:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="L45" s="16"/>
+      <c r="M45" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N45" s="21"/>
+      <c r="O45" s="23"/>
+      <c r="P45" s="21"/>
+    </row>
+    <row r="46" spans="12:16" x14ac:dyDescent="0.35">
+      <c r="L46" s="16"/>
+      <c r="N46" s="21"/>
+      <c r="P46" s="21"/>
+    </row>
+    <row r="47" spans="12:16" x14ac:dyDescent="0.35">
+      <c r="L47" s="16"/>
+      <c r="P47" s="21"/>
+    </row>
+    <row r="48" spans="12:16" x14ac:dyDescent="0.35">
+      <c r="L48" s="16"/>
+    </row>
+    <row r="49" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L49" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="M4:P4" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M5:P11">
+      <sortCondition ref="M4"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="4">
+    <mergeCell ref="C1:Q2"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:J4"/>
-    <mergeCell ref="C1:P2"/>
+    <mergeCell ref="L13:M13"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:J11">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>D6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>MONTH(D6)&lt;&gt;MONTH(DATEVALUE(1&amp;$F$4&amp;$D$4))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M14:M43">
+  <conditionalFormatting sqref="O14:P44">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$N14="Rest"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="4">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P47" xr:uid="{1473E2FC-C3F8-460C-98E5-76EAF62C2D1D}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P14:P46" xr:uid="{AB985086-C4E4-4891-8B68-58BD9AE49A3C}">
+      <formula1>-1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N14:N44" xr:uid="{0E650E78-A085-4CF0-B837-F097AC168F39}">
       <formula1>$M$5:$M$11</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N45:N46" xr:uid="{8E086C47-C38B-4B1F-ABD1-56973872140F}">
+      <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="3" id="{256BD19D-B937-493E-84F4-DD970EC946CC}">
+          <x14:cfRule type="expression" priority="4" id="{256BD19D-B937-493E-84F4-DD970EC946CC}">
             <xm:f>ISNUMBER(MATCH(D6,'Key data'!$A:$A,0))</xm:f>
             <x14:dxf>
               <fill>
@@ -2868,17 +3917,17 @@
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>'Key data'!$E$2:$E$6</xm:f>
           </x14:formula1>
           <xm:sqref>D4:E4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{13A9297B-BCAD-40D9-B4A3-068AA0CCA3E4}">
           <x14:formula1>
             <xm:f>'Key data'!$D$2:$D$13</xm:f>
           </x14:formula1>
-          <xm:sqref>F4:J4</xm:sqref>
+          <xm:sqref>F4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2887,11 +3936,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="C1:F1048576"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2901,136 +3950,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="13">
+      <c r="A2" s="5">
         <v>45010</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="4">
         <v>2023</v>
       </c>
-      <c r="I2" s="15">
-        <f>DATEVALUE(1&amp;Tracker!F4&amp;Tracker!D4)</f>
+      <c r="I2" s="6">
+        <f>DATEVALUE(1&amp;Demo!F4&amp;Demo!D4)</f>
         <v>45170</v>
       </c>
-      <c r="J2" s="12">
-        <f>WEEKDAY(DATEVALUE(1&amp;Tracker!F4&amp;Tracker!D4),2)</f>
+      <c r="J2" s="4">
+        <f>WEEKDAY(DATEVALUE(1&amp;Demo!F4&amp;Demo!D4),2)</f>
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="13">
+      <c r="A3" s="5">
         <v>45011</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="4">
         <v>2024</v>
       </c>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="13">
+      <c r="A4" s="5">
         <v>45012</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="4">
         <v>2025</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="13">
+      <c r="A5" s="5">
         <v>45013</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="4">
         <v>2026</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="13">
+      <c r="A6" s="5">
         <v>45014</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="4">
         <v>2027</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="13">
+      <c r="A7" s="5">
         <v>45015</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="13">
+      <c r="A8" s="5">
         <v>45016</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="13">
+      <c r="A9" s="5">
         <v>45017</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="12"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="12"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="12"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="12"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="12"/>
+      <c r="E13" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
